--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -415,52 +415,268 @@
       <c r="D1" t="str">
         <v>TicketCode</v>
       </c>
+      <c r="E1" t="str">
+        <v>TicketImage</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Saed</v>
+        <v/>
       </c>
       <c r="B2" t="str">
-        <v>as@gmail.com</v>
+        <v/>
       </c>
       <c r="C2" t="str">
-        <v>0565915014</v>
+        <v/>
       </c>
       <c r="D2" t="str">
-        <v>NONE</v>
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Saed</v>
+        <v/>
       </c>
       <c r="B3" t="str">
-        <v>as@gmail.com</v>
+        <v/>
       </c>
       <c r="C3" t="str">
-        <v>0565915014</v>
+        <v/>
       </c>
       <c r="D3" t="str">
-        <v>NONE</v>
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Saed</v>
+        <v/>
       </c>
       <c r="B4" t="str">
-        <v>as@gmail.com</v>
+        <v/>
       </c>
       <c r="C4" t="str">
-        <v>dfbdf</v>
+        <v/>
       </c>
       <c r="D4" t="str">
-        <v>eqwasddw</v>
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v/>
+      </c>
+      <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <v/>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Hzjxh</v>
+      </c>
+      <c r="B10" t="str">
+        <v>salehssag20@gmail.com</v>
+      </c>
+      <c r="C10" t="str">
+        <v>0565915014</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Hshdhdjs</v>
+      </c>
+      <c r="E10" t="str">
+        <v>IMG_0641.jpeg</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Saleh AG</v>
+      </c>
+      <c r="B11" t="str">
+        <v>salehssag20@gmail.com</v>
+      </c>
+      <c r="C11" t="str">
+        <v>0595656</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Ndjdjsjs</v>
+      </c>
+      <c r="E11" t="str">
+        <v>IMG_0642.jpeg</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Saleh AG</v>
+      </c>
+      <c r="B12" t="str">
+        <v>salehssag20@gmail.com</v>
+      </c>
+      <c r="C12" t="str">
+        <v>222</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Hdhs</v>
+      </c>
+      <c r="E12" t="str">
+        <v>IMG_0642.jpeg</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Saleh AG</v>
+      </c>
+      <c r="B13" t="str">
+        <v>salehssag20@gmail.com</v>
+      </c>
+      <c r="C13" t="str">
+        <v>6464646</v>
+      </c>
+      <c r="D13" t="str">
+        <v xml:space="preserve">The </v>
+      </c>
+      <c r="E13" t="str">
+        <v>IMG_0642.jpeg</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Saleh AG</v>
+      </c>
+      <c r="B14" t="str">
+        <v>salehssag20@gmail.com</v>
+      </c>
+      <c r="C14" t="str">
+        <v>22</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Suaha</v>
+      </c>
+      <c r="E14" t="str">
+        <v>IMG_0642.jpeg</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Saleh AG</v>
+      </c>
+      <c r="B15" t="str">
+        <v>salehssag20@gmail.com</v>
+      </c>
+      <c r="C15" t="str">
+        <v>55</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Jdisis</v>
+      </c>
+      <c r="E15" t="str">
+        <v>IMG_0642.jpeg</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Saleh AG</v>
+      </c>
+      <c r="B16" t="str">
+        <v>salehssag20@gmail.com</v>
+      </c>
+      <c r="C16" t="str">
+        <v>666</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Ii</v>
+      </c>
+      <c r="E16" t="str">
+        <v>IMG_0642.jpeg</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E16"/>
   </ignoredErrors>
 </worksheet>
 </file>